--- a/Trade_Save.xlsx
+++ b/Trade_Save.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aashishsingh/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aashishsingh/Documents/Workspace/StudyFolder/mac-datamart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA71EC44-EE5A-3B44-AF47-DFEB8265E4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB07D6D0-006C-4849-B82F-EB7BE450F64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15760" xr2:uid="{0CFF4560-CEDF-D74B-B32D-E57A1FCCB742}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>SELL</t>
   </si>
@@ -446,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135262D4-3C43-3643-9F56-53D4384E810A}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,6 +595,14 @@
         <v>6646.8</v>
       </c>
     </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>

--- a/Trade_Save.xlsx
+++ b/Trade_Save.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aashishsingh/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aashishsingh/Documents/Workspace/StudyFolder/mac-datamart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA71EC44-EE5A-3B44-AF47-DFEB8265E4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091C5F06-9766-FA44-872B-B8544E840B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15760" xr2:uid="{0CFF4560-CEDF-D74B-B32D-E57A1FCCB742}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>SELL</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>TradeSetup</t>
+  </si>
+  <si>
+    <t>Final Target 1</t>
   </si>
 </sst>
 </file>
@@ -446,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135262D4-3C43-3643-9F56-53D4384E810A}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -581,11 +584,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C11">
-        <f>C8+C10</f>
-        <v>7278</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>9</v>
@@ -593,6 +595,14 @@
       <c r="O11">
         <f>O8-O10</f>
         <v>6646.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
